--- a/Task list.xlsx
+++ b/Task list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive - Sudhir Srivastava Innovations Pvt. Ltd\Abhinay's Workspace\GitHub Repo\Repository_architecture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5716A3-EB3A-4DD8-9101-833293B78E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control system" sheetId="1" r:id="rId1"/>
@@ -857,155 +857,155 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,22 +1308,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1340,187 +1340,187 @@
       <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1546,19 +1546,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1566,181 +1566,181 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="10"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="G2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="35"/>
-      <c r="G3" s="17" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="29"/>
+      <c r="G3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="35"/>
-      <c r="G4" s="20" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="29"/>
+      <c r="G4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="35"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="35"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="35"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="35"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="35"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="35"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1756,9 +1756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE50F863-D13E-4A9A-9D29-43EABB5F22D1}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1766,80 +1764,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="G2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="35"/>
-      <c r="G3" s="17" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="29"/>
+      <c r="G3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="35"/>
-      <c r="G4" s="20" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="29"/>
+      <c r="G4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1865,135 +1863,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="35"/>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="35"/>
-      <c r="G3" s="17" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="29"/>
+      <c r="G3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="35"/>
-      <c r="G4" s="20" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="29"/>
+      <c r="G4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="35"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="35"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="39"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2019,91 +2017,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="G2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="35"/>
-      <c r="G3" s="17" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="29"/>
+      <c r="G3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="35"/>
-      <c r="G4" s="20" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="29"/>
+      <c r="G4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="39"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2130,161 +2128,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="46">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="H2" s="8" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="H2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="35"/>
-      <c r="H3" s="17" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="29"/>
+      <c r="H3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49">
+      <c r="A4" s="42">
         <v>3</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="35"/>
-      <c r="H4" s="20" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="29"/>
+      <c r="H4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+      <c r="A5" s="42">
         <v>4</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="35"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
+      <c r="A6" s="42">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="35"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
+      <c r="A7" s="42">
         <v>6</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51" t="s">
+      <c r="B7" s="59"/>
+      <c r="C7" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="35"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
+      <c r="A8" s="42">
         <v>7</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="35"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="49">
+      <c r="A9" s="42">
         <v>8</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="35"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="49">
+      <c r="A10" s="42">
         <v>9</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="35"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54">
+      <c r="A11" s="46">
         <v>10</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="39"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2311,102 +2309,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="44"/>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="38"/>
+      <c r="G2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="35"/>
-      <c r="G3" s="17" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="29"/>
+      <c r="G3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="35"/>
-      <c r="G4" s="20" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="29"/>
+      <c r="G4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="39"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2432,19 +2430,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2452,115 +2450,115 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="27" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="10"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="G2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="35"/>
-      <c r="G3" s="17" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="29"/>
+      <c r="G3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="35"/>
-      <c r="G4" s="20" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="29"/>
+      <c r="G4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="35"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="35"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="39"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2576,7 +2574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79D8B59-7ED1-4276-9DA9-F64D4C9D3306}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2587,219 +2585,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="60"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="20" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="51"/>
       <c r="K6" s="61" t="s">
         <v>99</v>
       </c>
       <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="51"/>
       <c r="K7" s="61"/>
       <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="51"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="51"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="60"/>
+      <c r="C10" s="51"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="51"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="51"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="51"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="60"/>
+      <c r="C14" s="51"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="60"/>
+      <c r="C15" s="51"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="51"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="51"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="51"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="60"/>
+      <c r="C19" s="51"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59" t="s">
+      <c r="A20" s="60"/>
+      <c r="B20" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="60"/>
+      <c r="C20" s="51"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="51" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="51"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="K6:L7"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A6:A20"/>
-    <mergeCell ref="K6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
